--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.937032850966933</v>
+        <v>13.937032860052149</v>
       </c>
       <c r="C2">
-        <v>15.645709832817776</v>
+        <v>15.645709828726817</v>
       </c>
       <c r="D2">
-        <v>15.175526774931377</v>
+        <v>15.175526778808981</v>
       </c>
       <c r="E2">
-        <v>16.660707823583031</v>
+        <v>16.660707823763161</v>
       </c>
       <c r="F2">
-        <v>10.946096659013195</v>
+        <v>10.94609665599938</v>
       </c>
       <c r="G2">
-        <v>13.342221539322924</v>
+        <v>13.342221537596597</v>
       </c>
       <c r="H2">
-        <v>11.233745507449594</v>
+        <v>11.23374549872783</v>
       </c>
       <c r="I2">
-        <v>12.378156288709349</v>
+        <v>12.378156288885075</v>
       </c>
       <c r="J2">
-        <v>16.546708082384008</v>
+        <v>16.546708096745309</v>
       </c>
       <c r="K2">
-        <v>12.687861620632873</v>
+        <v>12.687861616520388</v>
       </c>
       <c r="L2">
-        <v>12.400579450606109</v>
+        <v>12.400579451450117</v>
       </c>
       <c r="M2">
-        <v>13.757608376742461</v>
+        <v>13.757608376304347</v>
       </c>
       <c r="N2">
-        <v>13.221324824980638</v>
+        <v>13.22132482058386</v>
       </c>
       <c r="O2">
-        <v>12.232762436246599</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="P2">
-        <v>14.264079156537173</v>
+        <v>14.26407915432096</v>
       </c>
       <c r="Q2">
-        <v>12.9012908487733</v>
+        <v>12.901290847121361</v>
       </c>
       <c r="R2">
-        <v>11.559030910670156</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="S2">
-        <v>17.629847154461114</v>
+        <v>17.629847154540229</v>
       </c>
       <c r="T2">
-        <v>13.176134858183433</v>
+        <v>13.17613485809879</v>
       </c>
       <c r="U2">
-        <v>15.104796470041324</v>
+        <v>15.104796467891878</v>
       </c>
       <c r="V2">
-        <v>10.901748310002974</v>
+        <v>10.901748302611502</v>
       </c>
       <c r="W2">
-        <v>10.480063832258853</v>
+        <v>10.480063806533382</v>
       </c>
       <c r="X2">
-        <v>14.540542780073542</v>
+        <v>14.540542778318638</v>
       </c>
       <c r="Y2">
-        <v>15.413015073770051</v>
+        <v>15.413015063402774</v>
       </c>
       <c r="Z2">
-        <v>14.957034543430673</v>
+        <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>17.359899859477036</v>
+        <v>17.359899855510225</v>
       </c>
       <c r="AB2">
-        <v>18.835897757842439</v>
+        <v>18.83589776836385</v>
       </c>
       <c r="AC2">
-        <v>14.165980893651655</v>
+        <v>14.165980887604332</v>
       </c>
       <c r="AD2">
-        <v>18.417661958003904</v>
+        <v>18.417661960977867</v>
       </c>
       <c r="AE2">
-        <v>12.974404204789067</v>
+        <v>12.97440417062348</v>
       </c>
       <c r="AF2">
-        <v>14.208727860154765</v>
+        <v>14.208727839933369</v>
       </c>
       <c r="AG2">
-        <v>12.307831170521817</v>
+        <v>12.307831177506836</v>
       </c>
       <c r="AH2">
-        <v>13.043388039636817</v>
+        <v>13.043388029369515</v>
       </c>
       <c r="AI2">
-        <v>19.427290009225047</v>
+        <v>19.427289978942465</v>
       </c>
       <c r="AJ2">
-        <v>13.516929229422276</v>
+        <v>13.516929205510458</v>
       </c>
       <c r="AK2">
-        <v>13.546954743780576</v>
+        <v>13.546954749245451</v>
       </c>
       <c r="AL2">
-        <v>15.138742478556106</v>
+        <v>15.138742459489791</v>
       </c>
       <c r="AM2">
-        <v>13.858941265384534</v>
+        <v>13.858941247051874</v>
       </c>
       <c r="AN2">
-        <v>13.066501876712969</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="AO2">
-        <v>16.377534962455247</v>
+        <v>16.377534974050732</v>
       </c>
       <c r="AP2">
-        <v>13.839940409481514</v>
+        <v>13.839940388828072</v>
       </c>
       <c r="AQ2">
-        <v>12.322849687399707</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="AR2">
-        <v>17.08612096990786</v>
+        <v>17.086120970595026</v>
       </c>
       <c r="AS2">
-        <v>15.3256398673131</v>
+        <v>15.325639857928</v>
       </c>
       <c r="AT2">
-        <v>17.033622666436699</v>
+        <v>17.033622686537175</v>
       </c>
       <c r="AU2">
-        <v>12.141040082201657</v>
+        <v>12.141040070960686</v>
       </c>
       <c r="AV2">
-        <v>13.572157740914232</v>
+        <v>13.572157750411995</v>
       </c>
       <c r="AW2">
-        <v>14.528030956252813</v>
+        <v>14.528030936549113</v>
       </c>
       <c r="AX2">
-        <v>17.737614349161156</v>
+        <v>17.73761436536644</v>
       </c>
       <c r="AY2">
-        <v>17.152168210133308</v>
+        <v>17.152168214251653</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>15.08524154304394</v>
       </c>
       <c r="C3">
-        <v>14.37970128096199</v>
+        <v>14.379701282488307</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>15.982707751375441</v>
       </c>
       <c r="E3">
-        <v>15.271994471925854</v>
+        <v>15.271994476754443</v>
       </c>
       <c r="F3">
-        <v>10.840429492809593</v>
+        <v>10.84042948972094</v>
       </c>
       <c r="G3">
-        <v>14.598854512061452</v>
+        <v>14.598854522596067</v>
       </c>
       <c r="H3">
-        <v>10.403740308176666</v>
+        <v>10.403740308040435</v>
       </c>
       <c r="I3">
-        <v>12.878425916791214</v>
+        <v>12.878425914861905</v>
       </c>
       <c r="J3">
-        <v>17.18534610057149</v>
+        <v>17.185346139582613</v>
       </c>
       <c r="K3">
-        <v>14.769332697398193</v>
+        <v>14.769332696849574</v>
       </c>
       <c r="L3">
-        <v>13.036364852352115</v>
+        <v>13.03636484929522</v>
       </c>
       <c r="M3">
-        <v>14.338863299324011</v>
+        <v>14.338831288621718</v>
       </c>
       <c r="N3">
-        <v>13.200961281454104</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="O3">
-        <v>9.7337519472565859</v>
+        <v>9.7337519344899999</v>
       </c>
       <c r="P3">
-        <v>14.892747733373957</v>
+        <v>14.892747721602248</v>
       </c>
       <c r="Q3">
-        <v>11.259322116239669</v>
+        <v>11.259322120356996</v>
       </c>
       <c r="R3">
-        <v>10.465699772760729</v>
+        <v>10.465699751611059</v>
       </c>
       <c r="S3">
-        <v>15.662351732351244</v>
+        <v>15.662351731103257</v>
       </c>
       <c r="T3">
-        <v>13.481329736501598</v>
+        <v>13.481329738957518</v>
       </c>
       <c r="U3">
-        <v>15.910454212087439</v>
+        <v>15.91045421420241</v>
       </c>
       <c r="V3">
-        <v>11.733733428142004</v>
+        <v>11.733733428638631</v>
       </c>
       <c r="W3">
-        <v>11.448907076848162</v>
+        <v>11.448907079421634</v>
       </c>
       <c r="X3">
-        <v>12.894748597825192</v>
+        <v>12.894748594743813</v>
       </c>
       <c r="Y3">
-        <v>17.730448689392794</v>
+        <v>17.730448671326126</v>
       </c>
       <c r="Z3">
-        <v>15.915898571849835</v>
+        <v>15.915898566953215</v>
       </c>
       <c r="AA3">
-        <v>16.66515009611966</v>
+        <v>16.665150107257794</v>
       </c>
       <c r="AB3">
-        <v>16.575408612306354</v>
+        <v>16.57540861916247</v>
       </c>
       <c r="AC3">
-        <v>16.613697708490321</v>
+        <v>16.613697698114038</v>
       </c>
       <c r="AD3">
-        <v>18.730247903735489</v>
+        <v>18.730247902099233</v>
       </c>
       <c r="AE3">
-        <v>13.541321836723927</v>
+        <v>13.541321811301621</v>
       </c>
       <c r="AF3">
-        <v>15.447143673920715</v>
+        <v>15.4471436372194</v>
       </c>
       <c r="AG3">
-        <v>13.303894189652086</v>
+        <v>13.303894154953827</v>
       </c>
       <c r="AH3">
-        <v>14.861959255846108</v>
+        <v>14.861959215839374</v>
       </c>
       <c r="AI3">
-        <v>22.28805934918411</v>
+        <v>22.28805932371883</v>
       </c>
       <c r="AJ3">
-        <v>15.025528982811418</v>
+        <v>15.025528982644015</v>
       </c>
       <c r="AK3">
-        <v>14.967979917596802</v>
+        <v>14.967979885035698</v>
       </c>
       <c r="AL3">
-        <v>15.188365806831596</v>
+        <v>15.188365839996438</v>
       </c>
       <c r="AM3">
-        <v>15.422172226925868</v>
+        <v>15.422172215707143</v>
       </c>
       <c r="AN3">
-        <v>12.210097170613164</v>
+        <v>12.210097167259022</v>
       </c>
       <c r="AO3">
-        <v>17.210814442988458</v>
+        <v>17.210814455641472</v>
       </c>
       <c r="AP3">
-        <v>11.715711565727061</v>
+        <v>11.715711551082137</v>
       </c>
       <c r="AQ3">
-        <v>11.603940848352401</v>
+        <v>11.603940847069778</v>
       </c>
       <c r="AR3">
-        <v>17.920857892925859</v>
+        <v>17.920857897448244</v>
       </c>
       <c r="AS3">
-        <v>13.52864782130497</v>
+        <v>13.528647827214298</v>
       </c>
       <c r="AT3">
-        <v>17.004909199145171</v>
+        <v>17.004909175677525</v>
       </c>
       <c r="AU3">
-        <v>12.200624007032779</v>
+        <v>12.200623988762038</v>
       </c>
       <c r="AV3">
-        <v>12.345711970974412</v>
+        <v>12.345711955667403</v>
       </c>
       <c r="AW3">
-        <v>14.904642276000732</v>
+        <v>14.90464207372092</v>
       </c>
       <c r="AX3">
-        <v>16.504639834991906</v>
+        <v>16.5046397884933</v>
       </c>
       <c r="AY3">
-        <v>18.612185829964368</v>
+        <v>18.612185821927227</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.937032860052149</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.645709828726817</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15.175526778808981</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.660707823763161</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.94609665599938</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.342221537596597</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11.23374549872783</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.378156288885075</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.546708096745309</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.687861616520388</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.400579451450117</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.757608376304347</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.22132482058386</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.232762440473394</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.26407915432096</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.901290847121361</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.559030914856949</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.629847154540229</v>
+        <v>16.410836723741955</v>
       </c>
       <c r="T2">
         <v>13.17613485809879</v>
@@ -588,55 +477,55 @@
         <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>17.359899855510225</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.83589776836385</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>14.165980887604332</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.417661960977867</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.97440417062348</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.208727839933369</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.307831177506836</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>13.043388029369515</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.427289978942465</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>13.516929205510458</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.546954749245451</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>15.138742459489791</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.858941247051874</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>13.066501868432459</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.377534974050732</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.839940388828072</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>12.322849670143519</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.086120970595026</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.08524154304394</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.379701282488307</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.982707751375441</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.271994476754443</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.84042948972094</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.598854522596067</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.403740308040435</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.878425914861905</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.185346139582613</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.769332696849574</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.03636484929522</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.338831288621718</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.20096127938978</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.7337519344899999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.892747721602248</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.259322120356996</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.465699751611059</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.662351731103257</v>
@@ -743,55 +629,55 @@
         <v>15.915898566953215</v>
       </c>
       <c r="AA3">
-        <v>16.665150107257794</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.57540861916247</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.613697698114038</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.730247902099233</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.541321811301621</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.4471436372194</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.303894154953827</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.861959215839374</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>22.28805932371883</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.025528982644015</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.967979885035698</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.188365839996438</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.422172215707143</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>12.210097167259022</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.210814455641472</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.715711551082137</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.603940847069778</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.920857897448244</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.937032850966933</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="C2">
-        <v>15.217762247779683</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="D2">
-        <v>15.175526774931377</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="E2">
-        <v>16.660707823583031</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="F2">
         <v>10.946096659013195</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>11.096057042646507</v>
       </c>
       <c r="C3">
-        <v>14.37970128096199</v>
+        <v>10.465699751611059</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>12.623249442862919</v>
       </c>
       <c r="E3">
-        <v>15.271994471925854</v>
+        <v>11.561693571943357</v>
       </c>
       <c r="F3">
         <v>10.840429492809593</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.937032850966933</v>
+        <v>13.101799500853376</v>
       </c>
       <c r="C2">
-        <v>15.217762247779683</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="D2">
-        <v>15.175526774931377</v>
+        <v>13.858941247051874</v>
       </c>
       <c r="E2">
-        <v>16.660707823583031</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="F2">
         <v>10.946096659013195</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="C3">
-        <v>14.37970128096199</v>
+        <v>11.096057042646507</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>15.422172215707143</v>
       </c>
       <c r="E3">
-        <v>16.504970087825797</v>
+        <v>12.623249442862919</v>
       </c>
       <c r="F3">
         <v>10.840429492809593</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.937032860052149</v>
+      </c>
+      <c r="C2">
+        <v>15.21776222269812</v>
+      </c>
+      <c r="D2">
+        <v>15.175526778808981</v>
+      </c>
+      <c r="E2">
+        <v>16.660707823763161</v>
+      </c>
+      <c r="F2">
+        <v>10.94609665599938</v>
+      </c>
+      <c r="G2">
+        <v>14.217286137974106</v>
+      </c>
+      <c r="H2">
+        <v>11.23374549872783</v>
+      </c>
+      <c r="I2">
+        <v>13.026520251838667</v>
+      </c>
+      <c r="J2">
+        <v>16.546708096745309</v>
+      </c>
+      <c r="K2">
+        <v>12.687861616520388</v>
+      </c>
+      <c r="L2">
+        <v>12.89943189195669</v>
+      </c>
+      <c r="M2">
+        <v>15.163400439080533</v>
+      </c>
+      <c r="N2">
         <v>13.101799500853376</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>12.232762440473394</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.609778576292271</v>
+      </c>
+      <c r="Q2">
+        <v>12.901290847121361</v>
+      </c>
+      <c r="R2">
+        <v>11.559030914856949</v>
+      </c>
+      <c r="T2">
+        <v>12.530807560986096</v>
+      </c>
+      <c r="U2">
+        <v>15.104796467891878</v>
+      </c>
+      <c r="V2">
+        <v>11.539843382387801</v>
+      </c>
+      <c r="W2">
+        <v>10.480063806533382</v>
+      </c>
+      <c r="X2">
+        <v>14.540542778318638</v>
+      </c>
+      <c r="Y2">
+        <v>15.413015063402774</v>
+      </c>
+      <c r="Z2">
+        <v>14.957034538394881</v>
+      </c>
+      <c r="AA2">
+        <v>17.359899855510225</v>
+      </c>
+      <c r="AB2">
+        <v>18.83589776836385</v>
+      </c>
+      <c r="AC2">
+        <v>14.165980887604332</v>
+      </c>
+      <c r="AD2">
+        <v>18.417661960977867</v>
+      </c>
+      <c r="AE2">
+        <v>12.97440417062348</v>
+      </c>
+      <c r="AF2">
+        <v>14.208727839933369</v>
+      </c>
+      <c r="AG2">
+        <v>12.307831177506836</v>
+      </c>
+      <c r="AH2">
+        <v>13.043388029369515</v>
+      </c>
+      <c r="AI2">
+        <v>19.427289978942465</v>
+      </c>
+      <c r="AJ2">
+        <v>13.516929205510458</v>
+      </c>
+      <c r="AK2">
+        <v>13.546954749245451</v>
+      </c>
+      <c r="AL2">
+        <v>15.138742459489791</v>
+      </c>
+      <c r="AM2">
         <v>13.858941247051874</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>13.066501868432459</v>
       </c>
-      <c r="F2">
-        <v>10.946096659013195</v>
-      </c>
-      <c r="G2">
-        <v>14.217286196763453</v>
-      </c>
-      <c r="H2">
-        <v>11.233745507449594</v>
-      </c>
-      <c r="I2">
-        <v>13.026520235375369</v>
-      </c>
-      <c r="J2">
-        <v>16.546708082384008</v>
-      </c>
-      <c r="K2">
-        <v>12.687861620632873</v>
-      </c>
-      <c r="L2">
-        <v>12.899431891483456</v>
-      </c>
-      <c r="M2">
-        <v>15.163400447255142</v>
-      </c>
-      <c r="N2">
-        <v>13.101799505303505</v>
-      </c>
-      <c r="O2">
-        <v>12.232762436246599</v>
-      </c>
-      <c r="P2">
-        <v>14.609778570966547</v>
-      </c>
-      <c r="Q2">
-        <v>12.9012908487733</v>
-      </c>
-      <c r="R2">
-        <v>11.559030910670156</v>
-      </c>
-      <c r="T2">
-        <v>12.530807561456092</v>
-      </c>
-      <c r="U2">
-        <v>15.104796470041324</v>
-      </c>
-      <c r="V2">
-        <v>11.539843395195213</v>
-      </c>
-      <c r="W2">
-        <v>10.480063832258853</v>
-      </c>
-      <c r="X2">
-        <v>14.540542780073542</v>
-      </c>
-      <c r="Y2">
-        <v>15.413015073770051</v>
-      </c>
-      <c r="Z2">
-        <v>14.957034543430673</v>
-      </c>
-      <c r="AA2">
-        <v>17.359899859477036</v>
-      </c>
-      <c r="AB2">
-        <v>18.835897757842439</v>
-      </c>
-      <c r="AC2">
-        <v>14.165980893651655</v>
-      </c>
-      <c r="AD2">
-        <v>18.417661958003904</v>
-      </c>
-      <c r="AE2">
-        <v>12.974404204789067</v>
-      </c>
-      <c r="AF2">
-        <v>14.208727860154765</v>
-      </c>
-      <c r="AG2">
-        <v>12.307831170521817</v>
-      </c>
-      <c r="AH2">
-        <v>13.043388039636817</v>
-      </c>
-      <c r="AI2">
-        <v>19.427290009225047</v>
-      </c>
-      <c r="AJ2">
-        <v>13.516929229422276</v>
-      </c>
-      <c r="AK2">
-        <v>13.546954743780576</v>
-      </c>
-      <c r="AL2">
-        <v>15.138742478556106</v>
-      </c>
-      <c r="AM2">
-        <v>13.858941265384534</v>
-      </c>
-      <c r="AN2">
-        <v>13.066501876712969</v>
-      </c>
       <c r="AO2">
-        <v>16.377534962455247</v>
+        <v>16.377534974050732</v>
       </c>
       <c r="AP2">
-        <v>14.284428143550301</v>
+        <v>14.284428134350168</v>
       </c>
       <c r="AQ2">
-        <v>12.322849687399707</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="AR2">
-        <v>17.08612096990786</v>
+        <v>17.086120970595026</v>
       </c>
       <c r="AS2">
-        <v>15.3256398673131</v>
+        <v>15.325639857928</v>
       </c>
       <c r="AT2">
-        <v>17.033622666436699</v>
+        <v>17.033622686537175</v>
       </c>
       <c r="AU2">
-        <v>11.052462175821262</v>
+        <v>11.052462149980576</v>
       </c>
       <c r="AV2">
-        <v>13.572157740914232</v>
+        <v>13.572157750411995</v>
       </c>
       <c r="AW2">
-        <v>14.528030956252813</v>
+        <v>14.528030936549113</v>
       </c>
       <c r="AX2">
-        <v>17.737614349161156</v>
+        <v>17.73761436536644</v>
       </c>
       <c r="AY2">
-        <v>17.152168210133308</v>
+        <v>17.152168214251653</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.08524154304394</v>
+      </c>
+      <c r="C3">
+        <v>14.379701282488307</v>
+      </c>
+      <c r="D3">
+        <v>15.982707751375441</v>
+      </c>
+      <c r="E3">
+        <v>16.504970092039091</v>
+      </c>
+      <c r="F3">
+        <v>10.84042948972094</v>
+      </c>
+      <c r="G3">
+        <v>14.598854522596067</v>
+      </c>
+      <c r="H3">
+        <v>10.403740308040435</v>
+      </c>
+      <c r="I3">
+        <v>12.878425914861905</v>
+      </c>
+      <c r="J3">
+        <v>17.185346139582613</v>
+      </c>
+      <c r="K3">
+        <v>14.565892459301999</v>
+      </c>
+      <c r="L3">
+        <v>13.03636484929522</v>
+      </c>
+      <c r="M3">
+        <v>13.675031225833159</v>
+      </c>
+      <c r="N3">
         <v>13.20096127938978</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>11.096057042646507</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.892747721602248</v>
+      </c>
+      <c r="Q3">
+        <v>11.259322120356996</v>
+      </c>
+      <c r="R3">
+        <v>10.465699751611059</v>
+      </c>
+      <c r="S3">
+        <v>15.662351731103257</v>
+      </c>
+      <c r="T3">
+        <v>13.481329738957518</v>
+      </c>
+      <c r="U3">
+        <v>15.91045421420241</v>
+      </c>
+      <c r="V3">
+        <v>12.097880439328145</v>
+      </c>
+      <c r="W3">
+        <v>11.448907079421634</v>
+      </c>
+      <c r="X3">
+        <v>12.894748594743813</v>
+      </c>
+      <c r="Y3">
+        <v>17.730448671326126</v>
+      </c>
+      <c r="Z3">
+        <v>15.915898566953215</v>
+      </c>
+      <c r="AA3">
+        <v>16.665150107257794</v>
+      </c>
+      <c r="AB3">
+        <v>16.57540861916247</v>
+      </c>
+      <c r="AC3">
+        <v>16.613697698114038</v>
+      </c>
+      <c r="AD3">
+        <v>18.730247902099233</v>
+      </c>
+      <c r="AE3">
+        <v>13.541321811301621</v>
+      </c>
+      <c r="AF3">
+        <v>15.4471436372194</v>
+      </c>
+      <c r="AG3">
+        <v>13.303894154953827</v>
+      </c>
+      <c r="AH3">
+        <v>14.861959215839374</v>
+      </c>
+      <c r="AI3">
+        <v>17.396183721010974</v>
+      </c>
+      <c r="AJ3">
+        <v>15.025528982644015</v>
+      </c>
+      <c r="AK3">
+        <v>14.967979885035698</v>
+      </c>
+      <c r="AL3">
+        <v>15.188365839996438</v>
+      </c>
+      <c r="AM3">
         <v>15.422172215707143</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.623249442862919</v>
       </c>
-      <c r="F3">
-        <v>10.840429492809593</v>
-      </c>
-      <c r="G3">
-        <v>14.598854512061452</v>
-      </c>
-      <c r="H3">
-        <v>10.403740308176666</v>
-      </c>
-      <c r="I3">
-        <v>12.878425916791214</v>
-      </c>
-      <c r="J3">
-        <v>17.18534610057149</v>
-      </c>
-      <c r="K3">
-        <v>14.565892459313767</v>
-      </c>
-      <c r="L3">
-        <v>13.036364852352115</v>
-      </c>
-      <c r="M3">
-        <v>13.675119022036478</v>
-      </c>
-      <c r="N3">
-        <v>13.200961281454104</v>
-      </c>
-      <c r="O3">
-        <v>11.09605706470343</v>
-      </c>
-      <c r="P3">
-        <v>14.892747733373957</v>
-      </c>
-      <c r="Q3">
-        <v>11.259322116239669</v>
-      </c>
-      <c r="R3">
-        <v>10.465699772760729</v>
-      </c>
-      <c r="S3">
-        <v>15.662351732351244</v>
-      </c>
-      <c r="T3">
-        <v>13.481329736501598</v>
-      </c>
-      <c r="U3">
-        <v>15.910454212087439</v>
-      </c>
-      <c r="V3">
-        <v>12.097880434967351</v>
-      </c>
-      <c r="W3">
-        <v>11.448907076848162</v>
-      </c>
-      <c r="X3">
-        <v>12.894748597825192</v>
-      </c>
-      <c r="Y3">
-        <v>17.730448689392794</v>
-      </c>
-      <c r="Z3">
-        <v>15.915898571849835</v>
-      </c>
-      <c r="AA3">
-        <v>16.66515009611966</v>
-      </c>
-      <c r="AB3">
-        <v>16.575408612306354</v>
-      </c>
-      <c r="AC3">
-        <v>16.613697708490321</v>
-      </c>
-      <c r="AD3">
-        <v>18.730247903735489</v>
-      </c>
-      <c r="AE3">
-        <v>13.541321836723927</v>
-      </c>
-      <c r="AF3">
-        <v>15.447143673920715</v>
-      </c>
-      <c r="AG3">
-        <v>13.303894189652086</v>
-      </c>
-      <c r="AH3">
-        <v>14.861959255846108</v>
-      </c>
-      <c r="AI3">
-        <v>17.396183715366128</v>
-      </c>
-      <c r="AJ3">
-        <v>15.025528982811418</v>
-      </c>
-      <c r="AK3">
-        <v>14.967979917596802</v>
-      </c>
-      <c r="AL3">
-        <v>15.188365806831596</v>
-      </c>
-      <c r="AM3">
-        <v>15.422172226925868</v>
-      </c>
-      <c r="AN3">
-        <v>12.623249437675039</v>
-      </c>
       <c r="AO3">
-        <v>17.210814442988458</v>
+        <v>17.210814455641472</v>
       </c>
       <c r="AP3">
-        <v>11.715711565727061</v>
+        <v>11.715711551082137</v>
       </c>
       <c r="AQ3">
-        <v>11.561693587639803</v>
+        <v>11.561693571943357</v>
       </c>
       <c r="AR3">
-        <v>17.920857892925859</v>
+        <v>17.920857897448244</v>
       </c>
       <c r="AS3">
-        <v>13.52864782130497</v>
+        <v>13.528647827214298</v>
       </c>
       <c r="AT3">
-        <v>17.004909199145171</v>
+        <v>17.004909175677525</v>
       </c>
       <c r="AU3">
-        <v>12.360689620935201</v>
+        <v>12.360689619972659</v>
       </c>
       <c r="AV3">
-        <v>12.345711970974412</v>
+        <v>12.345711955667403</v>
       </c>
       <c r="AW3">
-        <v>14.904642276000732</v>
+        <v>14.90464207372092</v>
       </c>
       <c r="AX3">
-        <v>16.504639834991906</v>
+        <v>16.5046397884933</v>
       </c>
       <c r="AY3">
-        <v>18.612185829964368</v>
+        <v>18.612185821927227</v>
       </c>
     </row>
   </sheetData>
